--- a/biology/Neurosciences/William_Rostène/William_Rostène.xlsx
+++ b/biology/Neurosciences/William_Rostène/William_Rostène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>William_Rost%C3%A8ne</t>
+          <t>William_Rostène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Rostène (né le 17 juin 1948 à Paris) est un neuro-endocrinologiste français, directeur de recherche émérite de l’INSERM, président de la Société de biologie depuis 2012.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>William_Rost%C3%A8ne</t>
+          <t>William_Rostène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">William Rostène fait ses études primaires à l’école Sorbier et secondaires au lycée Paul-Valéry à Paris (1959-1967). Il est boursier de l'éducation nationale, 3e cycle, Paris VI (1971-1973), et passe son doctorat de 3e cycle en endocrinologie, à l'université Pierre et Marie Curie, Paris VI (1973).
 Il est professeur associé (Coopération du Service national à l'étranger)), dans le laboratoire de biocontrôles, université Laval, Québec, dirigé par Claude Fortier (1973-1975). Puis, boursier du ministère des Affaires intergouvernementales du Québec (1975).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>William_Rost%C3%A8ne</t>
+          <t>William_Rostène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">William Rostène est chargé de recherche (1979), maître de recherche (1984), directeur de recherche de 2e classe (1986), directeur de recherche de 1re classe (1991), directeur de recherche de classe exceptionnelle (2006), directeur de recherche émérite à l’Inserm (2013).
 La carrière de chercheur de William Rostène débute dans les années 1970 avec Claude Kordon, directeur de l’unité de recherche Inserm de neuroendocrinologie, par l’étude de la régulation d’un neuropeptide libérant certaines hormones de la reproduction.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>William_Rost%C3%A8ne</t>
+          <t>William_Rostène</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,11 +600,13 @@
           <t>Instances scientifiques et d’administration de la recherche</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Consultant auprès de Biocom (1986-1990).
 Président de l’Association pour la recherche sur le diabète et les insuffisances cérébrales (1987-1997).et actuellement
-Membre de la commission scientifique spécialisée (CSS 9) Inserm, Interface physique-biologie, technologies médicales et chirurgicales (1987-1990)[1]
+Membre de la commission scientifique spécialisée (CSS 9) Inserm, Interface physique-biologie, technologies médicales et chirurgicales (1987-1990)
 Organisateur de trois ateliers de formation Inserm (1991,1993, 1995) et d’une École Inserm (2002).
 Président de l’amicale Inserm-Weizmann (1991-1998).
 Consultant auprès de Sanofi-Synthélabo (1992-1998).
@@ -596,10 +614,10 @@
 Co coordinateur du projet européen BIOMED (en) (1994-1998).
 Responsable de la coopération franco-québécoise en recherche biomédicale auprès du ministère des Affaires étrangères (1994-1998)
 Coresponsable du programme vieillissement franco-québécois/ministère des Affaires étrangères (1998-2002).
-Président de la CSS 5 Régulations hormonales (1999-2002)[1].
+Président de la CSS 5 Régulations hormonales (1999-2002).
 Chargé de mission auprès du président de l’université Pierre et Marie Curie (2001-2006), membre du directoire de la recherche de cette université, responsable de la politique pour la recherche biomédicale (2001-2006).
 Coordinateur du réseau chimiokines, université Pierre-et-Marie-Curie (2002-2004).
-Président de la CSS 1 Neurosciences, neuro-endocrinologie, psychiatrie (2008-2012)[1].
+Président de la CSS 1 Neurosciences, neuro-endocrinologie, psychiatrie (2008-2012).
 Expert auprès de la Commission nationale d'évaluation (CNE) et de l’Agence d'évaluation de la recherche et de l'enseignement supérieur (2004).</t>
         </is>
       </c>
@@ -610,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>William_Rost%C3%A8ne</t>
+          <t>William_Rostène</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,12 +646,14 @@
           <t>Sociétés savantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>William Rostène est membre de douze sociétés savantes et, notamment, représentant des membres étrangers de la Society for Neuroscience (États-Unis) (1991-1993) :
 Membre de la Société des neurosciences ;
 Il est depuis 2012 Président de la Société de biologie ;
-Président de la Société de Neuroendocrinologie[2] (1997-2000) et secrétaire général de la Fédération internationale de Neuroendocrinologie (2006-2011) ;
+Président de la Société de Neuroendocrinologie (1997-2000) et secrétaire général de la Fédération internationale de Neuroendocrinologie (2006-2011) ;
 membre de l’Endocrine Society.</t>
         </is>
       </c>
@@ -644,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>William_Rost%C3%A8ne</t>
+          <t>William_Rostène</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -662,7 +682,9 @@
           <t>Distinctions - Prix</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Prix de la Fondation pour la recherche médicale, endocrinologie (1983).
 Prix Jacques-Rousseau - André-Siegfried du centre de coopération inter-universitaire franco-québécois pour ses travaux de recherche en neurosciences et son implication dans la coopération franco-québécoise (2007).
